--- a/corpus/corpora_train_dev_test/verbos_dev.xlsx
+++ b/corpus/corpora_train_dev_test/verbos_dev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\NLG_BRAZILIAN_PORTUGUESE_19-11\corpus\corpora_train_dev_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\andre\Documents\GitHub\NLG_BRAZILIAN_PORTUGUESE_19-11\corpus\corpora_train_dev_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D810C-03F5-4CAF-81DD-DC84DB0A8C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6697C-C571-444F-ACC0-63CC20E9B0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="1831">
   <si>
     <t>mistificar</t>
   </si>
@@ -5507,6 +5507,12 @@
   </si>
   <si>
     <t>aspecto</t>
+  </si>
+  <si>
+    <t>abraces</t>
+  </si>
+  <si>
+    <t>mistificaram</t>
   </si>
 </sst>
 </file>
@@ -6350,8 +6356,8 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D539" sqref="D539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6391,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6417,7 +6423,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1829</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>

--- a/corpus/corpora_train_dev_test/verbos_dev.xlsx
+++ b/corpus/corpora_train_dev_test/verbos_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\andre\Documents\GitHub\NLG_BRAZILIAN_PORTUGUESE_19-11\corpus\corpora_train_dev_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6697C-C571-444F-ACC0-63CC20E9B0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B4F205-2E6F-4146-AE2B-E1AD10977F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portuguese-dev" sheetId="1" r:id="rId1"/>
@@ -5655,7 +5655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5835,6 +5835,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5996,8 +6002,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6356,8 +6363,8 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D539" sqref="D539"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9403,26 +9410,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="C132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15616,26 +15623,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    <row r="402" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C402" t="s">
-        <v>1</v>
-      </c>
-      <c r="D402">
-        <v>3</v>
-      </c>
-      <c r="E402" t="s">
-        <v>7</v>
-      </c>
-      <c r="F402" t="s">
+      <c r="C402" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D402" s="1">
+        <v>3</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F402" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="1" t="s">
         <v>48</v>
       </c>
     </row>
